--- a/medicine/Soins infirmiers et profession infirmière/1940_en_santé_et_médecine/1940_en_santé_et_médecine.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/1940_en_santé_et_médecine/1940_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1940_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1940_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1940 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1940_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1940_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>25 mai : à Oxford, le pathologiste australien Howard Florey et ses collaborateurs expérimentent sur trois souris de la pénicilline purifiée et stabilisée. Cette réussite ouvre la possibilité de produire industriellement de la pénicilline[1].
-Juin : Karl Landsteiner et Alexander Solomon Wiener découvrent le facteur Rhésus, qui régit la compatibilité entre les sangs humains[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>25 mai : à Oxford, le pathologiste australien Howard Florey et ses collaborateurs expérimentent sur trois souris de la pénicilline purifiée et stabilisée. Cette réussite ouvre la possibilité de produire industriellement de la pénicilline.
+Juin : Karl Landsteiner et Alexander Solomon Wiener découvrent le facteur Rhésus, qui régit la compatibilité entre les sangs humains.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1940_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1940_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1er avril : Wangari Muta Maathai (morte en 2011), biologiste, professeur d'anatomie en médecine vétérinaire et militante politique et écologiste kényane, lauréate du prix Nobel de la paix en 2004.
 20 août : Juan Rosai (en) (mort en 2020), médecin américain né en Italie.
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1940_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1940_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>14 avril : Pierre Marie (né en 1853), neurologue français.
 2 septembre : Maude Abbott (née en 1869), médecin anglo-québécois, pionnière des cardiopathies congénitales.
